--- a/plot_curve_whithout_activation.xlsx
+++ b/plot_curve_whithout_activation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\investigacion\nadia_guajardo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BA749156-B19F-4BE4-9F34-16825DDCF38C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED66A3FD-8203-4C55-B02E-071133C887FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
@@ -886,9 +886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -955,19 +953,19 @@
         <v>1.1849567329797499</v>
       </c>
       <c r="D3">
-        <v>1.2166761669145301</v>
+        <v>1.5829186211763999</v>
       </c>
       <c r="E3">
-        <v>1.25014057720477</v>
+        <v>2.3834497378738799</v>
       </c>
       <c r="F3">
-        <v>1.28549804068587</v>
+        <v>4.8237095078883101</v>
       </c>
       <c r="G3">
-        <v>1.3229138773098299</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1.36257323548528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -981,19 +979,19 @@
         <v>2.4089093291345698</v>
       </c>
       <c r="D4">
-        <v>2.47429609178451</v>
+        <v>3.2328109165183601</v>
       </c>
       <c r="E4">
-        <v>2.5433325262580802</v>
+        <v>4.9140901508588897</v>
       </c>
       <c r="F4">
-        <v>2.6163330608836901</v>
+        <v>10.254590020082301</v>
       </c>
       <c r="G4">
-        <v>2.6936493211352199</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>2.7756757995961401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1007,19 +1005,19 @@
         <v>3.67621850046425</v>
       </c>
       <c r="D5">
-        <v>3.77746119934501</v>
+        <v>4.9578291966636696</v>
       </c>
       <c r="E5">
-        <v>3.8844417393595001</v>
+        <v>7.6145033925869701</v>
       </c>
       <c r="F5">
-        <v>3.9976624497837498</v>
+        <v>16.472686821167098</v>
       </c>
       <c r="G5">
-        <v>4.1176861000451099</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>4.2451452785924397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1033,19 +1031,19 @@
         <v>4.9926604231719001</v>
       </c>
       <c r="D6">
-        <v>5.1322543263284901</v>
+        <v>6.7685826211661597</v>
       </c>
       <c r="E6">
-        <v>5.2798878327153496</v>
+        <v>10.5141862150879</v>
       </c>
       <c r="F6">
-        <v>5.4362769209998696</v>
+        <v>23.7538010996631</v>
       </c>
       <c r="G6">
-        <v>5.6022252978641198</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>5.7786382775962704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1059,19 +1057,19 @@
         <v>6.3663686855964103</v>
       </c>
       <c r="D7">
-        <v>6.5472202837822602</v>
+        <v>8.6796623096080694</v>
       </c>
       <c r="E7">
-        <v>6.7386666921831599</v>
+        <v>13.6534662591543</v>
       </c>
       <c r="F7">
-        <v>6.94166887437689</v>
+        <v>32.5530713763591</v>
       </c>
       <c r="G7">
-        <v>7.1573078768416396</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>7.3868042328435397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1085,19 +1083,19 @@
         <v>7.8098120935017601</v>
       </c>
       <c r="D8">
-        <v>8.0354227623504499</v>
+        <v>10.712795323462499</v>
       </c>
       <c r="E8">
-        <v>8.2744931694691104</v>
+        <v>17.091277005555099</v>
       </c>
       <c r="F8">
-        <v>8.5282684679879601</v>
+        <v>43.706348329292098</v>
       </c>
       <c r="G8">
-        <v>8.7981527708036893</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>9.0857354385738098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1111,19 +1109,19 @@
         <v>9.3446175990349403</v>
       </c>
       <c r="D9">
-        <v>9.6194564540557099</v>
+        <v>12.9044437163115</v>
       </c>
       <c r="E9">
-        <v>9.9110179890444705</v>
+        <v>20.923177180886999</v>
       </c>
       <c r="F9">
-        <v>10.220882927091001</v>
+        <v>59.029551977784898</v>
       </c>
       <c r="G9">
-        <v>10.550838604961699</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>10.902914032729701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1137,19 +1135,19 @@
         <v>11.0163677816033</v>
       </c>
       <c r="D10">
-        <v>11.346816909676701</v>
+        <v>15.3289157201945</v>
       </c>
       <c r="E10">
-        <v>11.6978162337225</v>
+        <v>25.334358792755999</v>
       </c>
       <c r="F10">
-        <v>12.0713557743876</v>
+        <v>83.910268389632904</v>
       </c>
       <c r="G10">
-        <v>12.4696926899963</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>12.8953979548105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1163,19 +1161,19 @@
         <v>12.964033753556601</v>
       </c>
       <c r="D11">
-        <v>13.3619956417533</v>
+        <v>18.206214778922899</v>
       </c>
       <c r="E11">
-        <v>13.785357090185499</v>
+        <v>30.841186852952099</v>
       </c>
       <c r="F11">
-        <v>14.236650172211201</v>
+        <v>160.82223283354401</v>
       </c>
       <c r="G11">
-        <v>14.7187580286658</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>15.234978448268601</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
